--- a/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C949563-393D-413C-8823-BA8BBDBE49E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D4288-3E58-4667-93E7-81BFDBFBD345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C17"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D4288-3E58-4667-93E7-81BFDBFBD345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1508AB-AE8F-49C5-A413-3C6BA64329C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
-    <t>Plano</t>
-  </si>
-  <si>
     <t>Penhasco</t>
   </si>
   <si>
@@ -199,10 +196,16 @@
     <t>Ponte</t>
   </si>
   <si>
-    <t>estrada</t>
-  </si>
-  <si>
     <t>Praia</t>
+  </si>
+  <si>
+    <t>Planície</t>
+  </si>
+  <si>
+    <t>Penhasco Nevado</t>
+  </si>
+  <si>
+    <t>Estrada</t>
   </si>
 </sst>
 </file>
@@ -584,12 +587,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,7 +648,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -660,7 +665,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -677,7 +682,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -694,7 +699,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -711,7 +716,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -728,7 +733,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -745,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -762,7 +767,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -779,7 +784,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -796,7 +801,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -813,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -830,7 +835,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -847,7 +852,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -864,7 +869,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/GlobalTile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1508AB-AE8F-49C5-A413-3C6BA64329C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36D4288-3E58-4667-93E7-81BFDBFBD345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalTile" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -175,6 +175,9 @@
     <t>Alpha 20.27</t>
   </si>
   <si>
+    <t>Plano</t>
+  </si>
+  <si>
     <t>Penhasco</t>
   </si>
   <si>
@@ -196,16 +199,10 @@
     <t>Ponte</t>
   </si>
   <si>
+    <t>estrada</t>
+  </si>
+  <si>
     <t>Praia</t>
-  </si>
-  <si>
-    <t>Planície</t>
-  </si>
-  <si>
-    <t>Penhasco Nevado</t>
-  </si>
-  <si>
-    <t>Estrada</t>
   </si>
 </sst>
 </file>
@@ -587,14 +584,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,7 +643,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -665,7 +660,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -682,7 +677,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -699,7 +694,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -716,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -733,7 +728,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -750,7 +745,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -767,7 +762,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -784,7 +779,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -801,7 +796,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -818,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -835,7 +830,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -852,7 +847,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -869,7 +864,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
